--- a/natmiOut/OldD2/LR-pairs_lrc2p/Spp1-Itgb3.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Spp1-Itgb3.xlsx
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>3.65940096425221</v>
+        <v>6.0587955</v>
       </c>
       <c r="H2">
-        <v>3.65940096425221</v>
+        <v>12.117591</v>
       </c>
       <c r="I2">
-        <v>0.001217580206043308</v>
+        <v>0.00132156215963526</v>
       </c>
       <c r="J2">
-        <v>0.001217580206043308</v>
+        <v>0.0008896335791751394</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>4.92014993748544</v>
+        <v>5.5509805</v>
       </c>
       <c r="N2">
-        <v>4.92014993748544</v>
+        <v>11.101961</v>
       </c>
       <c r="O2">
-        <v>0.444624790257125</v>
+        <v>0.4587918645086687</v>
       </c>
       <c r="P2">
-        <v>0.444624790257125</v>
+        <v>0.3684119094562331</v>
       </c>
       <c r="Q2">
-        <v>18.00480142549967</v>
+        <v>33.63225567398774</v>
       </c>
       <c r="R2">
-        <v>18.00480142549967</v>
+        <v>134.529022695951</v>
       </c>
       <c r="S2">
-        <v>0.0005413663437332329</v>
+        <v>0.0006063219672831639</v>
       </c>
       <c r="T2">
-        <v>0.0005413663437332329</v>
+        <v>0.000327751605620296</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>3.65940096425221</v>
+        <v>6.0587955</v>
       </c>
       <c r="H3">
-        <v>3.65940096425221</v>
+        <v>12.117591</v>
       </c>
       <c r="I3">
-        <v>0.001217580206043308</v>
+        <v>0.00132156215963526</v>
       </c>
       <c r="J3">
-        <v>0.001217580206043308</v>
+        <v>0.0008896335791751394</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.25869714417192</v>
+        <v>1.327207</v>
       </c>
       <c r="N3">
-        <v>1.25869714417192</v>
+        <v>3.981621</v>
       </c>
       <c r="O3">
-        <v>0.1137461176662237</v>
+        <v>0.1096944538210784</v>
       </c>
       <c r="P3">
-        <v>0.1137461176662237</v>
+        <v>0.1321277020646205</v>
       </c>
       <c r="Q3">
-        <v>4.606077543084226</v>
+        <v>8.041275799168499</v>
       </c>
       <c r="R3">
-        <v>4.606077543084226</v>
+        <v>48.24765479501099</v>
       </c>
       <c r="S3">
-        <v>0.000138495021384667</v>
+        <v>0.0001449680392917947</v>
       </c>
       <c r="T3">
-        <v>0.000138495021384667</v>
+        <v>0.0001175452404959348</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>3.65940096425221</v>
+        <v>6.0587955</v>
       </c>
       <c r="H4">
-        <v>3.65940096425221</v>
+        <v>12.117591</v>
       </c>
       <c r="I4">
-        <v>0.001217580206043308</v>
+        <v>0.00132156215963526</v>
       </c>
       <c r="J4">
-        <v>0.001217580206043308</v>
+        <v>0.0008896335791751394</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.245400130904583</v>
+        <v>0.250284</v>
       </c>
       <c r="N4">
-        <v>0.245400130904583</v>
+        <v>0.750852</v>
       </c>
       <c r="O4">
-        <v>0.02217635298087786</v>
+        <v>0.02068612257180288</v>
       </c>
       <c r="P4">
-        <v>0.02217635298087786</v>
+        <v>0.02491657276034671</v>
       </c>
       <c r="Q4">
-        <v>0.8980174756598496</v>
+        <v>1.516419572922</v>
       </c>
       <c r="R4">
-        <v>0.8980174756598496</v>
+        <v>9.098517437531999</v>
       </c>
       <c r="S4">
-        <v>2.700148843174639E-05</v>
+        <v>2.733799682047152E-05</v>
       </c>
       <c r="T4">
-        <v>2.700148843174639E-05</v>
+        <v>2.216661980556503E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,52 +723,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>3.65940096425221</v>
+        <v>6.0587955</v>
       </c>
       <c r="H5">
-        <v>3.65940096425221</v>
+        <v>12.117591</v>
       </c>
       <c r="I5">
-        <v>0.001217580206043308</v>
+        <v>0.00132156215963526</v>
       </c>
       <c r="J5">
-        <v>0.001217580206043308</v>
+        <v>0.0008896335791751394</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.348726167180263</v>
+        <v>0.3570200000000001</v>
       </c>
       <c r="N5">
-        <v>0.348726167180263</v>
+        <v>1.07106</v>
       </c>
       <c r="O5">
-        <v>0.03151373452227327</v>
+        <v>0.02950791692870925</v>
       </c>
       <c r="P5">
-        <v>0.03151373452227327</v>
+        <v>0.03554248296694548</v>
       </c>
       <c r="Q5">
-        <v>1.276128872439432</v>
+        <v>2.16311116941</v>
       </c>
       <c r="R5">
-        <v>1.276128872439432</v>
+        <v>12.97866701646</v>
       </c>
       <c r="S5">
-        <v>3.83704993728236E-05</v>
+        <v>3.899654642264285E-05</v>
       </c>
       <c r="T5">
-        <v>3.83704993728236E-05</v>
+        <v>3.161978633465513E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,52 +785,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>3.65940096425221</v>
+        <v>6.0587955</v>
       </c>
       <c r="H6">
-        <v>3.65940096425221</v>
+        <v>12.117591</v>
       </c>
       <c r="I6">
-        <v>0.001217580206043308</v>
+        <v>0.00132156215963526</v>
       </c>
       <c r="J6">
-        <v>0.001217580206043308</v>
+        <v>0.0008896335791751394</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.69029222727481</v>
+        <v>4.001879333333334</v>
       </c>
       <c r="N6">
-        <v>3.69029222727481</v>
+        <v>12.005638</v>
       </c>
       <c r="O6">
-        <v>0.3334848385490725</v>
+        <v>0.3307577248521605</v>
       </c>
       <c r="P6">
-        <v>0.3334848385490725</v>
+        <v>0.3983998880756572</v>
       </c>
       <c r="Q6">
-        <v>13.50425893486188</v>
+        <v>24.246568496343</v>
       </c>
       <c r="R6">
-        <v>13.50425893486188</v>
+        <v>145.479410978058</v>
       </c>
       <c r="S6">
-        <v>0.0004060445384328991</v>
+        <v>0.0004371168931716664</v>
       </c>
       <c r="T6">
-        <v>0.0004060445384328991</v>
+        <v>0.0003544299183717219</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,52 +847,52 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>3.65940096425221</v>
+        <v>6.0587955</v>
       </c>
       <c r="H7">
-        <v>3.65940096425221</v>
+        <v>12.117591</v>
       </c>
       <c r="I7">
-        <v>0.001217580206043308</v>
+        <v>0.00132156215963526</v>
       </c>
       <c r="J7">
-        <v>0.001217580206043308</v>
+        <v>0.0008896335791751394</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.602581474159304</v>
+        <v>0.611755</v>
       </c>
       <c r="N7">
-        <v>0.602581474159304</v>
+        <v>1.22351</v>
       </c>
       <c r="O7">
-        <v>0.0544541660244277</v>
+        <v>0.05056191731758031</v>
       </c>
       <c r="P7">
-        <v>0.0544541660244277</v>
+        <v>0.04060144467619692</v>
       </c>
       <c r="Q7">
-        <v>2.205087227579075</v>
+        <v>3.7064984411025</v>
       </c>
       <c r="R7">
-        <v>2.205087227579075</v>
+        <v>14.82599376441</v>
       </c>
       <c r="S7">
-        <v>6.630231468793919E-05</v>
+        <v>6.682071664552091E-05</v>
       </c>
       <c r="T7">
-        <v>6.630231468793919E-05</v>
+        <v>3.612040854696647E-05</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,52 +909,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>28.190745986862</v>
+        <v>31.77968466666667</v>
       </c>
       <c r="H8">
-        <v>28.190745986862</v>
+        <v>95.339054</v>
       </c>
       <c r="I8">
-        <v>0.009379812336091498</v>
+        <v>0.006931877582038802</v>
       </c>
       <c r="J8">
-        <v>0.009379812336091498</v>
+        <v>0.006999479009086203</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>4.92014993748544</v>
+        <v>5.5509805</v>
       </c>
       <c r="N8">
-        <v>4.92014993748544</v>
+        <v>11.101961</v>
       </c>
       <c r="O8">
-        <v>0.444624790257125</v>
+        <v>0.4587918645086687</v>
       </c>
       <c r="P8">
-        <v>0.444624790257125</v>
+        <v>0.3684119094562331</v>
       </c>
       <c r="Q8">
-        <v>138.702697104927</v>
+        <v>176.4084098808157</v>
       </c>
       <c r="R8">
-        <v>138.702697104927</v>
+        <v>1058.450459284894</v>
       </c>
       <c r="S8">
-        <v>0.004170497092585876</v>
+        <v>0.003180289040409424</v>
       </c>
       <c r="T8">
-        <v>0.004170497092585876</v>
+        <v>0.00257869142693627</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,52 +971,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>28.190745986862</v>
+        <v>31.77968466666667</v>
       </c>
       <c r="H9">
-        <v>28.190745986862</v>
+        <v>95.339054</v>
       </c>
       <c r="I9">
-        <v>0.009379812336091498</v>
+        <v>0.006931877582038802</v>
       </c>
       <c r="J9">
-        <v>0.009379812336091498</v>
+        <v>0.006999479009086203</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>1.25869714417192</v>
+        <v>1.327207</v>
       </c>
       <c r="N9">
-        <v>1.25869714417192</v>
+        <v>3.981621</v>
       </c>
       <c r="O9">
-        <v>0.1137461176662237</v>
+        <v>0.1096944538210784</v>
       </c>
       <c r="P9">
-        <v>0.1137461176662237</v>
+        <v>0.1321277020646205</v>
       </c>
       <c r="Q9">
-        <v>35.48361146573922</v>
+        <v>42.17821994739266</v>
       </c>
       <c r="R9">
-        <v>35.48361146573922</v>
+        <v>379.603979526534</v>
       </c>
       <c r="S9">
-        <v>0.00106691723766816</v>
+        <v>0.0007603885253163237</v>
       </c>
       <c r="T9">
-        <v>0.00106691723766816</v>
+        <v>0.000924825077120107</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,52 +1033,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>28.190745986862</v>
+        <v>31.77968466666667</v>
       </c>
       <c r="H10">
-        <v>28.190745986862</v>
+        <v>95.339054</v>
       </c>
       <c r="I10">
-        <v>0.009379812336091498</v>
+        <v>0.006931877582038802</v>
       </c>
       <c r="J10">
-        <v>0.009379812336091498</v>
+        <v>0.006999479009086203</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.245400130904583</v>
+        <v>0.250284</v>
       </c>
       <c r="N10">
-        <v>0.245400130904583</v>
+        <v>0.750852</v>
       </c>
       <c r="O10">
-        <v>0.02217635298087786</v>
+        <v>0.02068612257180288</v>
       </c>
       <c r="P10">
-        <v>0.02217635298087786</v>
+        <v>0.02491657276034671</v>
       </c>
       <c r="Q10">
-        <v>6.918012755473783</v>
+        <v>7.953946597112001</v>
       </c>
       <c r="R10">
-        <v>6.918012755473783</v>
+        <v>71.585519374008</v>
       </c>
       <c r="S10">
-        <v>0.0002080100292595576</v>
+        <v>0.0001433936693147872</v>
       </c>
       <c r="T10">
-        <v>0.0002080100292595576</v>
+        <v>0.0001744030280144159</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,52 +1095,52 @@
         <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>28.190745986862</v>
+        <v>31.77968466666667</v>
       </c>
       <c r="H11">
-        <v>28.190745986862</v>
+        <v>95.339054</v>
       </c>
       <c r="I11">
-        <v>0.009379812336091498</v>
+        <v>0.006931877582038802</v>
       </c>
       <c r="J11">
-        <v>0.009379812336091498</v>
+        <v>0.006999479009086203</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.348726167180263</v>
+        <v>0.3570200000000001</v>
       </c>
       <c r="N11">
-        <v>0.348726167180263</v>
+        <v>1.07106</v>
       </c>
       <c r="O11">
-        <v>0.03151373452227327</v>
+        <v>0.02950791692870925</v>
       </c>
       <c r="P11">
-        <v>0.03151373452227327</v>
+        <v>0.03554248296694548</v>
       </c>
       <c r="Q11">
-        <v>9.830850797950767</v>
+        <v>11.34598301969334</v>
       </c>
       <c r="R11">
-        <v>9.830850797950767</v>
+        <v>102.11384717724</v>
       </c>
       <c r="S11">
-        <v>0.0002955929158283313</v>
+        <v>0.0002045452678507829</v>
       </c>
       <c r="T11">
-        <v>0.0002955929158283313</v>
+        <v>0.0002487788634579388</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,52 +1157,52 @@
         <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>28.190745986862</v>
+        <v>31.77968466666667</v>
       </c>
       <c r="H12">
-        <v>28.190745986862</v>
+        <v>95.339054</v>
       </c>
       <c r="I12">
-        <v>0.009379812336091498</v>
+        <v>0.006931877582038802</v>
       </c>
       <c r="J12">
-        <v>0.009379812336091498</v>
+        <v>0.006999479009086203</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>3.69029222727481</v>
+        <v>4.001879333333334</v>
       </c>
       <c r="N12">
-        <v>3.69029222727481</v>
+        <v>12.005638</v>
       </c>
       <c r="O12">
-        <v>0.3334848385490725</v>
+        <v>0.3307577248521605</v>
       </c>
       <c r="P12">
-        <v>0.3334848385490725</v>
+        <v>0.3983998880756572</v>
       </c>
       <c r="Q12">
-        <v>104.0320907963954</v>
+        <v>127.1784632873836</v>
       </c>
       <c r="R12">
-        <v>104.0320907963954</v>
+        <v>1144.606169586452</v>
       </c>
       <c r="S12">
-        <v>0.003128025202522072</v>
+        <v>0.00229277205798885</v>
       </c>
       <c r="T12">
-        <v>0.003128025202522072</v>
+        <v>0.002788591653807855</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,52 +1219,52 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>28.190745986862</v>
+        <v>31.77968466666667</v>
       </c>
       <c r="H13">
-        <v>28.190745986862</v>
+        <v>95.339054</v>
       </c>
       <c r="I13">
-        <v>0.009379812336091498</v>
+        <v>0.006931877582038802</v>
       </c>
       <c r="J13">
-        <v>0.009379812336091498</v>
+        <v>0.006999479009086203</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.602581474159304</v>
+        <v>0.611755</v>
       </c>
       <c r="N13">
-        <v>0.602581474159304</v>
+        <v>1.22351</v>
       </c>
       <c r="O13">
-        <v>0.0544541660244277</v>
+        <v>0.05056191731758031</v>
       </c>
       <c r="P13">
-        <v>0.0544541660244277</v>
+        <v>0.04060144467619692</v>
       </c>
       <c r="Q13">
-        <v>16.98722127441379</v>
+        <v>19.44138099325667</v>
       </c>
       <c r="R13">
-        <v>16.98722127441379</v>
+        <v>116.64828595954</v>
       </c>
       <c r="S13">
-        <v>0.0005107698582275014</v>
+        <v>0.0003504890211586345</v>
       </c>
       <c r="T13">
-        <v>0.0005107698582275014</v>
+        <v>0.0002841889597496151</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,52 +1281,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>2110.07010425502</v>
+        <v>3354.457804666667</v>
       </c>
       <c r="H14">
-        <v>2110.07010425502</v>
+        <v>10063.373414</v>
       </c>
       <c r="I14">
-        <v>0.7020765467906734</v>
+        <v>0.7316841277677443</v>
       </c>
       <c r="J14">
-        <v>0.7020765467906734</v>
+        <v>0.7388196968252817</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>4.92014993748544</v>
+        <v>5.5509805</v>
       </c>
       <c r="N14">
-        <v>4.92014993748544</v>
+        <v>11.101961</v>
       </c>
       <c r="O14">
-        <v>0.444624790257125</v>
+        <v>0.4587918645086687</v>
       </c>
       <c r="P14">
-        <v>0.444624790257125</v>
+        <v>0.3684119094562331</v>
       </c>
       <c r="Q14">
-        <v>10381.86129154023</v>
+        <v>18620.52986177748</v>
       </c>
       <c r="R14">
-        <v>10381.86129154023</v>
+        <v>111723.1791706648</v>
       </c>
       <c r="S14">
-        <v>0.3121606373612498</v>
+        <v>0.3356907252099623</v>
       </c>
       <c r="T14">
-        <v>0.3121606373612498</v>
+        <v>0.2721899752512772</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,52 +1343,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>2110.07010425502</v>
+        <v>3354.457804666667</v>
       </c>
       <c r="H15">
-        <v>2110.07010425502</v>
+        <v>10063.373414</v>
       </c>
       <c r="I15">
-        <v>0.7020765467906734</v>
+        <v>0.7316841277677443</v>
       </c>
       <c r="J15">
-        <v>0.7020765467906734</v>
+        <v>0.7388196968252817</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>1.25869714417192</v>
+        <v>1.327207</v>
       </c>
       <c r="N15">
-        <v>1.25869714417192</v>
+        <v>3.981621</v>
       </c>
       <c r="O15">
-        <v>0.1137461176662237</v>
+        <v>0.1096944538210784</v>
       </c>
       <c r="P15">
-        <v>0.1137461176662237</v>
+        <v>0.1321277020646205</v>
       </c>
       <c r="Q15">
-        <v>2655.939214228339</v>
+        <v>4452.059879558232</v>
       </c>
       <c r="R15">
-        <v>2655.939214228339</v>
+        <v>40068.53891602409</v>
       </c>
       <c r="S15">
-        <v>0.07985848150194796</v>
+        <v>0.08026169076503482</v>
       </c>
       <c r="T15">
-        <v>0.07985848150194796</v>
+        <v>0.09761854878160406</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,52 +1405,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>2110.07010425502</v>
+        <v>3354.457804666667</v>
       </c>
       <c r="H16">
-        <v>2110.07010425502</v>
+        <v>10063.373414</v>
       </c>
       <c r="I16">
-        <v>0.7020765467906734</v>
+        <v>0.7316841277677443</v>
       </c>
       <c r="J16">
-        <v>0.7020765467906734</v>
+        <v>0.7388196968252817</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.245400130904583</v>
+        <v>0.250284</v>
       </c>
       <c r="N16">
-        <v>0.245400130904583</v>
+        <v>0.750852</v>
       </c>
       <c r="O16">
-        <v>0.02217635298087786</v>
+        <v>0.02068612257180288</v>
       </c>
       <c r="P16">
-        <v>0.02217635298087786</v>
+        <v>0.02491657276034671</v>
       </c>
       <c r="Q16">
-        <v>517.811479802029</v>
+        <v>839.567117183192</v>
       </c>
       <c r="R16">
-        <v>517.811479802029</v>
+        <v>7556.104054648727</v>
       </c>
       <c r="S16">
-        <v>0.01556949732122578</v>
+        <v>0.01513570755084624</v>
       </c>
       <c r="T16">
-        <v>0.01556949732122578</v>
+        <v>0.01840885473272443</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,52 +1467,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>2110.07010425502</v>
+        <v>3354.457804666667</v>
       </c>
       <c r="H17">
-        <v>2110.07010425502</v>
+        <v>10063.373414</v>
       </c>
       <c r="I17">
-        <v>0.7020765467906734</v>
+        <v>0.7316841277677443</v>
       </c>
       <c r="J17">
-        <v>0.7020765467906734</v>
+        <v>0.7388196968252817</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.348726167180263</v>
+        <v>0.3570200000000001</v>
       </c>
       <c r="N17">
-        <v>0.348726167180263</v>
+        <v>1.07106</v>
       </c>
       <c r="O17">
-        <v>0.03151373452227327</v>
+        <v>0.02950791692870925</v>
       </c>
       <c r="P17">
-        <v>0.03151373452227327</v>
+        <v>0.03554248296694548</v>
       </c>
       <c r="Q17">
-        <v>735.836659938511</v>
+        <v>1197.608525422093</v>
       </c>
       <c r="R17">
-        <v>735.836659938511</v>
+        <v>10778.47672879884</v>
       </c>
       <c r="S17">
-        <v>0.02212505390987565</v>
+        <v>0.02159047446022568</v>
       </c>
       <c r="T17">
-        <v>0.02212505390987565</v>
+        <v>0.0262594864900564</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,52 +1529,52 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>2110.07010425502</v>
+        <v>3354.457804666667</v>
       </c>
       <c r="H18">
-        <v>2110.07010425502</v>
+        <v>10063.373414</v>
       </c>
       <c r="I18">
-        <v>0.7020765467906734</v>
+        <v>0.7316841277677443</v>
       </c>
       <c r="J18">
-        <v>0.7020765467906734</v>
+        <v>0.7388196968252817</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>3.69029222727481</v>
+        <v>4.001879333333334</v>
       </c>
       <c r="N18">
-        <v>3.69029222727481</v>
+        <v>12.005638</v>
       </c>
       <c r="O18">
-        <v>0.3334848385490725</v>
+        <v>0.3307577248521605</v>
       </c>
       <c r="P18">
-        <v>0.3334848385490725</v>
+        <v>0.3983998880756572</v>
       </c>
       <c r="Q18">
-        <v>7786.775304737248</v>
+        <v>13424.13536303424</v>
       </c>
       <c r="R18">
-        <v>7786.775304737248</v>
+        <v>120817.2182673081</v>
       </c>
       <c r="S18">
-        <v>0.2341318838555781</v>
+        <v>0.2420101774108966</v>
       </c>
       <c r="T18">
-        <v>0.2341318838555781</v>
+        <v>0.2943456845232832</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,52 +1591,52 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>2110.07010425502</v>
+        <v>3354.457804666667</v>
       </c>
       <c r="H19">
-        <v>2110.07010425502</v>
+        <v>10063.373414</v>
       </c>
       <c r="I19">
-        <v>0.7020765467906734</v>
+        <v>0.7316841277677443</v>
       </c>
       <c r="J19">
-        <v>0.7020765467906734</v>
+        <v>0.7388196968252817</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.602581474159304</v>
+        <v>0.611755</v>
       </c>
       <c r="N19">
-        <v>0.602581474159304</v>
+        <v>1.22351</v>
       </c>
       <c r="O19">
-        <v>0.0544541660244277</v>
+        <v>0.05056191731758031</v>
       </c>
       <c r="P19">
-        <v>0.0544541660244277</v>
+        <v>0.04060144467619692</v>
       </c>
       <c r="Q19">
-        <v>1271.489154001466</v>
+        <v>2052.106334293857</v>
       </c>
       <c r="R19">
-        <v>1271.489154001466</v>
+        <v>12312.63800576314</v>
       </c>
       <c r="S19">
-        <v>0.03823099284079622</v>
+        <v>0.03699535237077856</v>
       </c>
       <c r="T19">
-        <v>0.03823099284079622</v>
+        <v>0.02999714704633626</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,52 +1653,52 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>769.5240429458891</v>
+        <v>1056.205729</v>
       </c>
       <c r="H20">
-        <v>769.5240429458891</v>
+        <v>3168.617187</v>
       </c>
       <c r="I20">
-        <v>0.2560411531609246</v>
+        <v>0.2303826765957647</v>
       </c>
       <c r="J20">
-        <v>0.2560411531609246</v>
+        <v>0.2326294268478505</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>4.92014993748544</v>
+        <v>5.5509805</v>
       </c>
       <c r="N20">
-        <v>4.92014993748544</v>
+        <v>11.101961</v>
       </c>
       <c r="O20">
-        <v>0.444624790257125</v>
+        <v>0.4587918645086687</v>
       </c>
       <c r="P20">
-        <v>0.444624790257125</v>
+        <v>0.3684119094562331</v>
       </c>
       <c r="Q20">
-        <v>3786.173671793759</v>
+        <v>5862.977405667284</v>
       </c>
       <c r="R20">
-        <v>3786.173671793759</v>
+        <v>35177.86443400371</v>
       </c>
       <c r="S20">
-        <v>0.1138422440213685</v>
+        <v>0.1056976977458685</v>
       </c>
       <c r="T20">
-        <v>0.1138422440213685</v>
+        <v>0.08570345134072571</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,52 +1715,52 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>769.5240429458891</v>
+        <v>1056.205729</v>
       </c>
       <c r="H21">
-        <v>769.5240429458891</v>
+        <v>3168.617187</v>
       </c>
       <c r="I21">
-        <v>0.2560411531609246</v>
+        <v>0.2303826765957647</v>
       </c>
       <c r="J21">
-        <v>0.2560411531609246</v>
+        <v>0.2326294268478505</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>1.25869714417192</v>
+        <v>1.327207</v>
       </c>
       <c r="N21">
-        <v>1.25869714417192</v>
+        <v>3.981621</v>
       </c>
       <c r="O21">
-        <v>0.1137461176662237</v>
+        <v>0.1096944538210784</v>
       </c>
       <c r="P21">
-        <v>0.1137461176662237</v>
+        <v>0.1321277020646205</v>
       </c>
       <c r="Q21">
-        <v>968.5977152276204</v>
+        <v>1401.803636968903</v>
       </c>
       <c r="R21">
-        <v>968.5977152276204</v>
+        <v>12616.23273272013</v>
       </c>
       <c r="S21">
-        <v>0.02912368713483814</v>
+        <v>0.02527170187901055</v>
       </c>
       <c r="T21">
-        <v>0.02912368713483814</v>
+        <v>0.03073679160201622</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,52 +1777,52 @@
         <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>769.5240429458891</v>
+        <v>1056.205729</v>
       </c>
       <c r="H22">
-        <v>769.5240429458891</v>
+        <v>3168.617187</v>
       </c>
       <c r="I22">
-        <v>0.2560411531609246</v>
+        <v>0.2303826765957647</v>
       </c>
       <c r="J22">
-        <v>0.2560411531609246</v>
+        <v>0.2326294268478505</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>0.245400130904583</v>
+        <v>0.250284</v>
       </c>
       <c r="N22">
-        <v>0.245400130904583</v>
+        <v>0.750852</v>
       </c>
       <c r="O22">
-        <v>0.02217635298087786</v>
+        <v>0.02068612257180288</v>
       </c>
       <c r="P22">
-        <v>0.02217635298087786</v>
+        <v>0.02491657276034671</v>
       </c>
       <c r="Q22">
-        <v>188.8413008731451</v>
+        <v>264.351394677036</v>
       </c>
       <c r="R22">
-        <v>188.8413008731451</v>
+        <v>2379.162552093324</v>
       </c>
       <c r="S22">
-        <v>0.005678058990127674</v>
+        <v>0.004765724286480012</v>
       </c>
       <c r="T22">
-        <v>0.005678058990127674</v>
+        <v>0.005796328040252221</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,52 +1839,52 @@
         <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>769.5240429458891</v>
+        <v>1056.205729</v>
       </c>
       <c r="H23">
-        <v>769.5240429458891</v>
+        <v>3168.617187</v>
       </c>
       <c r="I23">
-        <v>0.2560411531609246</v>
+        <v>0.2303826765957647</v>
       </c>
       <c r="J23">
-        <v>0.2560411531609246</v>
+        <v>0.2326294268478505</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>0.348726167180263</v>
+        <v>0.3570200000000001</v>
       </c>
       <c r="N23">
-        <v>0.348726167180263</v>
+        <v>1.07106</v>
       </c>
       <c r="O23">
-        <v>0.03151373452227327</v>
+        <v>0.02950791692870925</v>
       </c>
       <c r="P23">
-        <v>0.03151373452227327</v>
+        <v>0.03554248296694548</v>
       </c>
       <c r="Q23">
-        <v>268.35317004958</v>
+        <v>377.0865693675801</v>
       </c>
       <c r="R23">
-        <v>268.35317004958</v>
+        <v>3393.77912430822</v>
       </c>
       <c r="S23">
-        <v>0.008068812927490086</v>
+        <v>0.006798112882801514</v>
       </c>
       <c r="T23">
-        <v>0.008068812927490086</v>
+        <v>0.008268227441350019</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,52 +1901,52 @@
         <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>769.5240429458891</v>
+        <v>1056.205729</v>
       </c>
       <c r="H24">
-        <v>769.5240429458891</v>
+        <v>3168.617187</v>
       </c>
       <c r="I24">
-        <v>0.2560411531609246</v>
+        <v>0.2303826765957647</v>
       </c>
       <c r="J24">
-        <v>0.2560411531609246</v>
+        <v>0.2326294268478505</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>3.69029222727481</v>
+        <v>4.001879333333334</v>
       </c>
       <c r="N24">
-        <v>3.69029222727481</v>
+        <v>12.005638</v>
       </c>
       <c r="O24">
-        <v>0.3334848385490725</v>
+        <v>0.3307577248521605</v>
       </c>
       <c r="P24">
-        <v>0.3334848385490725</v>
+        <v>0.3983998880756572</v>
       </c>
       <c r="Q24">
-        <v>2839.768594384302</v>
+        <v>4226.807878633368</v>
       </c>
       <c r="R24">
-        <v>2839.768594384302</v>
+        <v>38041.27090770031</v>
       </c>
       <c r="S24">
-        <v>0.08538584262378927</v>
+        <v>0.07620084995616622</v>
       </c>
       <c r="T24">
-        <v>0.08538584262378927</v>
+        <v>0.09267953761928795</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,52 +1963,52 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>769.5240429458891</v>
+        <v>1056.205729</v>
       </c>
       <c r="H25">
-        <v>769.5240429458891</v>
+        <v>3168.617187</v>
       </c>
       <c r="I25">
-        <v>0.2560411531609246</v>
+        <v>0.2303826765957647</v>
       </c>
       <c r="J25">
-        <v>0.2560411531609246</v>
+        <v>0.2326294268478505</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>0.602581474159304</v>
+        <v>0.611755</v>
       </c>
       <c r="N25">
-        <v>0.602581474159304</v>
+        <v>1.22351</v>
       </c>
       <c r="O25">
-        <v>0.0544541660244277</v>
+        <v>0.05056191731758031</v>
       </c>
       <c r="P25">
-        <v>0.0544541660244277</v>
+        <v>0.04060144467619692</v>
       </c>
       <c r="Q25">
-        <v>463.7009321993614</v>
+        <v>646.139135744395</v>
       </c>
       <c r="R25">
-        <v>463.7009321993614</v>
+        <v>3876.83481446637</v>
       </c>
       <c r="S25">
-        <v>0.01394250746331091</v>
+        <v>0.0116485898454379</v>
       </c>
       <c r="T25">
-        <v>0.01394250746331091</v>
+        <v>0.009445090804218402</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,52 +2025,52 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>8.058651479175509</v>
+        <v>9.293481999999999</v>
       </c>
       <c r="H26">
-        <v>8.058651479175509</v>
+        <v>27.880446</v>
       </c>
       <c r="I26">
-        <v>0.002681328070986831</v>
+        <v>0.002027121420825545</v>
       </c>
       <c r="J26">
-        <v>0.002681328070986831</v>
+        <v>0.002046890422690384</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>4.92014993748544</v>
+        <v>5.5509805</v>
       </c>
       <c r="N26">
-        <v>4.92014993748544</v>
+        <v>11.101961</v>
       </c>
       <c r="O26">
-        <v>0.444624790257125</v>
+        <v>0.4587918645086687</v>
       </c>
       <c r="P26">
-        <v>0.444624790257125</v>
+        <v>0.3684119094562331</v>
       </c>
       <c r="Q26">
-        <v>39.64977357148233</v>
+        <v>51.58793735910099</v>
       </c>
       <c r="R26">
-        <v>39.64977357148233</v>
+        <v>309.527624154606</v>
       </c>
       <c r="S26">
-        <v>0.001192184931173061</v>
+        <v>0.0009300268162460132</v>
       </c>
       <c r="T26">
-        <v>0.001192184931173061</v>
+        <v>0.0007540988090710406</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,52 +2087,52 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>8.058651479175509</v>
+        <v>9.293481999999999</v>
       </c>
       <c r="H27">
-        <v>8.058651479175509</v>
+        <v>27.880446</v>
       </c>
       <c r="I27">
-        <v>0.002681328070986831</v>
+        <v>0.002027121420825545</v>
       </c>
       <c r="J27">
-        <v>0.002681328070986831</v>
+        <v>0.002046890422690384</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>1.25869714417192</v>
+        <v>1.327207</v>
       </c>
       <c r="N27">
-        <v>1.25869714417192</v>
+        <v>3.981621</v>
       </c>
       <c r="O27">
-        <v>0.1137461176662237</v>
+        <v>0.1096944538210784</v>
       </c>
       <c r="P27">
-        <v>0.1137461176662237</v>
+        <v>0.1321277020646205</v>
       </c>
       <c r="Q27">
-        <v>10.14340160271503</v>
+        <v>12.334374364774</v>
       </c>
       <c r="R27">
-        <v>10.14340160271503</v>
+        <v>111.009369282966</v>
       </c>
       <c r="S27">
-        <v>0.0003049906582642167</v>
+        <v>0.0002223639770864665</v>
       </c>
       <c r="T27">
-        <v>0.0003049906582642167</v>
+        <v>0.0002704509279281602</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,52 +2149,52 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>8.058651479175509</v>
+        <v>9.293481999999999</v>
       </c>
       <c r="H28">
-        <v>8.058651479175509</v>
+        <v>27.880446</v>
       </c>
       <c r="I28">
-        <v>0.002681328070986831</v>
+        <v>0.002027121420825545</v>
       </c>
       <c r="J28">
-        <v>0.002681328070986831</v>
+        <v>0.002046890422690384</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>0.245400130904583</v>
+        <v>0.250284</v>
       </c>
       <c r="N28">
-        <v>0.245400130904583</v>
+        <v>0.750852</v>
       </c>
       <c r="O28">
-        <v>0.02217635298087786</v>
+        <v>0.02068612257180288</v>
       </c>
       <c r="P28">
-        <v>0.02217635298087786</v>
+        <v>0.02491657276034671</v>
       </c>
       <c r="Q28">
-        <v>1.977594127904082</v>
+        <v>2.326009848888</v>
       </c>
       <c r="R28">
-        <v>1.977594127904082</v>
+        <v>20.934088639992</v>
       </c>
       <c r="S28">
-        <v>5.946207775974028E-05</v>
+        <v>4.193328217912443E-05</v>
       </c>
       <c r="T28">
-        <v>5.946207775974028E-05</v>
+        <v>5.10014941494218E-05</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,52 +2211,52 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>8.058651479175509</v>
+        <v>9.293481999999999</v>
       </c>
       <c r="H29">
-        <v>8.058651479175509</v>
+        <v>27.880446</v>
       </c>
       <c r="I29">
-        <v>0.002681328070986831</v>
+        <v>0.002027121420825545</v>
       </c>
       <c r="J29">
-        <v>0.002681328070986831</v>
+        <v>0.002046890422690384</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>0.348726167180263</v>
+        <v>0.3570200000000001</v>
       </c>
       <c r="N29">
-        <v>0.348726167180263</v>
+        <v>1.07106</v>
       </c>
       <c r="O29">
-        <v>0.03151373452227327</v>
+        <v>0.02950791692870925</v>
       </c>
       <c r="P29">
-        <v>0.03151373452227327</v>
+        <v>0.03554248296694548</v>
       </c>
       <c r="Q29">
-        <v>2.810262642974432</v>
+        <v>3.31795894364</v>
       </c>
       <c r="R29">
-        <v>2.810262642974432</v>
+        <v>29.86163049276</v>
       </c>
       <c r="S29">
-        <v>8.449866099619807E-05</v>
+        <v>5.981613049012723E-05</v>
       </c>
       <c r="T29">
-        <v>8.449866099619807E-05</v>
+        <v>7.275156798367682E-05</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,52 +2273,52 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>8.058651479175509</v>
+        <v>9.293481999999999</v>
       </c>
       <c r="H30">
-        <v>8.058651479175509</v>
+        <v>27.880446</v>
       </c>
       <c r="I30">
-        <v>0.002681328070986831</v>
+        <v>0.002027121420825545</v>
       </c>
       <c r="J30">
-        <v>0.002681328070986831</v>
+        <v>0.002046890422690384</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>3.69029222727481</v>
+        <v>4.001879333333334</v>
       </c>
       <c r="N30">
-        <v>3.69029222727481</v>
+        <v>12.005638</v>
       </c>
       <c r="O30">
-        <v>0.3334848385490725</v>
+        <v>0.3307577248521605</v>
       </c>
       <c r="P30">
-        <v>0.3334848385490725</v>
+        <v>0.3983998880756572</v>
       </c>
       <c r="Q30">
-        <v>29.73877891591803</v>
+        <v>37.19139355050534</v>
       </c>
       <c r="R30">
-        <v>29.73877891591803</v>
+        <v>334.722541954548</v>
       </c>
       <c r="S30">
-        <v>0.0008941822588501393</v>
+        <v>0.0006704860691513361</v>
       </c>
       <c r="T30">
-        <v>0.0008941822588501393</v>
+        <v>0.0008154809153029838</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,52 +2335,52 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31">
-        <v>8.058651479175509</v>
+        <v>9.293481999999999</v>
       </c>
       <c r="H31">
-        <v>8.058651479175509</v>
+        <v>27.880446</v>
       </c>
       <c r="I31">
-        <v>0.002681328070986831</v>
+        <v>0.002027121420825545</v>
       </c>
       <c r="J31">
-        <v>0.002681328070986831</v>
+        <v>0.002046890422690384</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L31">
         <v>1</v>
       </c>
       <c r="M31">
-        <v>0.602581474159304</v>
+        <v>0.611755</v>
       </c>
       <c r="N31">
-        <v>0.602581474159304</v>
+        <v>1.22351</v>
       </c>
       <c r="O31">
-        <v>0.0544541660244277</v>
+        <v>0.05056191731758031</v>
       </c>
       <c r="P31">
-        <v>0.0544541660244277</v>
+        <v>0.04060144467619692</v>
       </c>
       <c r="Q31">
-        <v>4.855994088057634</v>
+        <v>5.68533408091</v>
       </c>
       <c r="R31">
-        <v>4.855994088057634</v>
+        <v>34.11200448546</v>
       </c>
       <c r="S31">
-        <v>0.0001460094839434754</v>
+        <v>0.0001024951456724771</v>
       </c>
       <c r="T31">
-        <v>0.0001460094839434754</v>
+        <v>8.310670825510097E-05</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,52 +2397,52 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F32">
         <v>1</v>
       </c>
       <c r="G32">
-        <v>85.9672041702086</v>
+        <v>126.775465</v>
       </c>
       <c r="H32">
-        <v>85.9672041702086</v>
+        <v>253.55093</v>
       </c>
       <c r="I32">
-        <v>0.02860357943528039</v>
+        <v>0.02765263447399147</v>
       </c>
       <c r="J32">
-        <v>0.02860357943528039</v>
+        <v>0.01861487331591611</v>
       </c>
       <c r="K32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L32">
         <v>1</v>
       </c>
       <c r="M32">
-        <v>4.92014993748544</v>
+        <v>5.5509805</v>
       </c>
       <c r="N32">
-        <v>4.92014993748544</v>
+        <v>11.101961</v>
       </c>
       <c r="O32">
-        <v>0.444624790257125</v>
+        <v>0.4587918645086687</v>
       </c>
       <c r="P32">
-        <v>0.444624790257125</v>
+        <v>0.3684119094562331</v>
       </c>
       <c r="Q32">
-        <v>422.9715342238499</v>
+        <v>703.7281340934325</v>
       </c>
       <c r="R32">
-        <v>422.9715342238499</v>
+        <v>2814.91253637373</v>
       </c>
       <c r="S32">
-        <v>0.01271786050701456</v>
+        <v>0.01268680372889923</v>
       </c>
       <c r="T32">
-        <v>0.01271786050701456</v>
+        <v>0.006857941022602536</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,52 +2459,52 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F33">
         <v>1</v>
       </c>
       <c r="G33">
-        <v>85.9672041702086</v>
+        <v>126.775465</v>
       </c>
       <c r="H33">
-        <v>85.9672041702086</v>
+        <v>253.55093</v>
       </c>
       <c r="I33">
-        <v>0.02860357943528039</v>
+        <v>0.02765263447399147</v>
       </c>
       <c r="J33">
-        <v>0.02860357943528039</v>
+        <v>0.01861487331591611</v>
       </c>
       <c r="K33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L33">
         <v>1</v>
       </c>
       <c r="M33">
-        <v>1.25869714417192</v>
+        <v>1.327207</v>
       </c>
       <c r="N33">
-        <v>1.25869714417192</v>
+        <v>3.981621</v>
       </c>
       <c r="O33">
-        <v>0.1137461176662237</v>
+        <v>0.1096944538210784</v>
       </c>
       <c r="P33">
-        <v>0.1137461176662237</v>
+        <v>0.1321277020646205</v>
       </c>
       <c r="Q33">
-        <v>108.2066743814859</v>
+        <v>168.257284576255</v>
       </c>
       <c r="R33">
-        <v>108.2066743814859</v>
+        <v>1009.54370745753</v>
       </c>
       <c r="S33">
-        <v>0.00325354611212058</v>
+        <v>0.003033340635338417</v>
       </c>
       <c r="T33">
-        <v>0.00325354611212058</v>
+        <v>0.002459540435456018</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,52 +2521,52 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F34">
         <v>1</v>
       </c>
       <c r="G34">
-        <v>85.9672041702086</v>
+        <v>126.775465</v>
       </c>
       <c r="H34">
-        <v>85.9672041702086</v>
+        <v>253.55093</v>
       </c>
       <c r="I34">
-        <v>0.02860357943528039</v>
+        <v>0.02765263447399147</v>
       </c>
       <c r="J34">
-        <v>0.02860357943528039</v>
+        <v>0.01861487331591611</v>
       </c>
       <c r="K34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L34">
         <v>1</v>
       </c>
       <c r="M34">
-        <v>0.245400130904583</v>
+        <v>0.250284</v>
       </c>
       <c r="N34">
-        <v>0.245400130904583</v>
+        <v>0.750852</v>
       </c>
       <c r="O34">
-        <v>0.02217635298087786</v>
+        <v>0.02068612257180288</v>
       </c>
       <c r="P34">
-        <v>0.02217635298087786</v>
+        <v>0.02491657276034671</v>
       </c>
       <c r="Q34">
-        <v>21.09636315687021</v>
+        <v>31.72987048206</v>
       </c>
       <c r="R34">
-        <v>21.09636315687021</v>
+        <v>190.37922289236</v>
       </c>
       <c r="S34">
-        <v>0.0006343230740733568</v>
+        <v>0.0005720257861622493</v>
       </c>
       <c r="T34">
-        <v>0.0006343230740733568</v>
+        <v>0.0004638188454006603</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,52 +2583,52 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F35">
         <v>1</v>
       </c>
       <c r="G35">
-        <v>85.9672041702086</v>
+        <v>126.775465</v>
       </c>
       <c r="H35">
-        <v>85.9672041702086</v>
+        <v>253.55093</v>
       </c>
       <c r="I35">
-        <v>0.02860357943528039</v>
+        <v>0.02765263447399147</v>
       </c>
       <c r="J35">
-        <v>0.02860357943528039</v>
+        <v>0.01861487331591611</v>
       </c>
       <c r="K35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L35">
         <v>1</v>
       </c>
       <c r="M35">
-        <v>0.348726167180263</v>
+        <v>0.3570200000000001</v>
       </c>
       <c r="N35">
-        <v>0.348726167180263</v>
+        <v>1.07106</v>
       </c>
       <c r="O35">
-        <v>0.03151373452227327</v>
+        <v>0.02950791692870925</v>
       </c>
       <c r="P35">
-        <v>0.03151373452227327</v>
+        <v>0.03554248296694548</v>
       </c>
       <c r="Q35">
-        <v>29.97901361347997</v>
+        <v>45.2613765143</v>
       </c>
       <c r="R35">
-        <v>29.97901361347997</v>
+        <v>271.5682590858</v>
       </c>
       <c r="S35">
-        <v>0.0009014056087101813</v>
+        <v>0.0008159716409185017</v>
       </c>
       <c r="T35">
-        <v>0.0009014056087101813</v>
+        <v>0.0006616188177627964</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,52 +2645,52 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F36">
         <v>1</v>
       </c>
       <c r="G36">
-        <v>85.9672041702086</v>
+        <v>126.775465</v>
       </c>
       <c r="H36">
-        <v>85.9672041702086</v>
+        <v>253.55093</v>
       </c>
       <c r="I36">
-        <v>0.02860357943528039</v>
+        <v>0.02765263447399147</v>
       </c>
       <c r="J36">
-        <v>0.02860357943528039</v>
+        <v>0.01861487331591611</v>
       </c>
       <c r="K36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L36">
         <v>1</v>
       </c>
       <c r="M36">
-        <v>3.69029222727481</v>
+        <v>4.001879333333334</v>
       </c>
       <c r="N36">
-        <v>3.69029222727481</v>
+        <v>12.005638</v>
       </c>
       <c r="O36">
-        <v>0.3334848385490725</v>
+        <v>0.3307577248521605</v>
       </c>
       <c r="P36">
-        <v>0.3334848385490725</v>
+        <v>0.3983998880756572</v>
       </c>
       <c r="Q36">
-        <v>317.2441053498674</v>
+        <v>507.3401133572234</v>
       </c>
       <c r="R36">
-        <v>317.2441053498674</v>
+        <v>3044.04068014334</v>
       </c>
       <c r="S36">
-        <v>0.009538860069900051</v>
+        <v>0.009146322464785837</v>
       </c>
       <c r="T36">
-        <v>0.009538860069900051</v>
+        <v>0.007416163445603518</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,52 +2707,52 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F37">
         <v>1</v>
       </c>
       <c r="G37">
-        <v>85.9672041702086</v>
+        <v>126.775465</v>
       </c>
       <c r="H37">
-        <v>85.9672041702086</v>
+        <v>253.55093</v>
       </c>
       <c r="I37">
-        <v>0.02860357943528039</v>
+        <v>0.02765263447399147</v>
       </c>
       <c r="J37">
-        <v>0.02860357943528039</v>
+        <v>0.01861487331591611</v>
       </c>
       <c r="K37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L37">
         <v>1</v>
       </c>
       <c r="M37">
-        <v>0.602581474159304</v>
+        <v>0.611755</v>
       </c>
       <c r="N37">
-        <v>0.602581474159304</v>
+        <v>1.22351</v>
       </c>
       <c r="O37">
-        <v>0.0544541660244277</v>
+        <v>0.05056191731758031</v>
       </c>
       <c r="P37">
-        <v>0.0544541660244277</v>
+        <v>0.04060144467619692</v>
       </c>
       <c r="Q37">
-        <v>51.80224461823816</v>
+        <v>77.555524591075</v>
       </c>
       <c r="R37">
-        <v>51.80224461823816</v>
+        <v>310.2220983643</v>
       </c>
       <c r="S37">
-        <v>0.001557584063461664</v>
+        <v>0.001398170217887228</v>
       </c>
       <c r="T37">
-        <v>0.001557584063461664</v>
+        <v>0.0007557907490905823</v>
       </c>
     </row>
   </sheetData>
